--- a/sydw/2020上/考点/2-经济.xlsx
+++ b/sydw/2020上/考点/2-经济.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="11440" windowHeight="6980" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="社会主义市场经济体制" sheetId="1" r:id="rId2"/>
     <sheet name="微观经济常识" sheetId="2" r:id="rId3"/>
     <sheet name="宏观经济常识" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="330">
   <si>
     <t>马克思主义政治经济学</t>
   </si>
@@ -867,6 +868,147 @@
   </si>
   <si>
     <t>外汇储备</t>
+  </si>
+  <si>
+    <t>商品经济理论</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>劳动产品</t>
+  </si>
+  <si>
+    <t>用于交换</t>
+  </si>
+  <si>
+    <t>二重属性</t>
+  </si>
+  <si>
+    <t>使用价值</t>
+  </si>
+  <si>
+    <t>自然属性</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>社会属性(特有属性)</t>
+  </si>
+  <si>
+    <t>价值量</t>
+  </si>
+  <si>
+    <t>价值规律</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>充当一般等价物的特殊物品</t>
+  </si>
+  <si>
+    <t>职能</t>
+  </si>
+  <si>
+    <t>标价</t>
+  </si>
+  <si>
+    <t>一手交钱一手交货</t>
+  </si>
+  <si>
+    <t>钱货分离</t>
+  </si>
+  <si>
+    <t>贮藏手段</t>
+  </si>
+  <si>
+    <t>黄金白银</t>
+  </si>
+  <si>
+    <t>美元、欧元等</t>
+  </si>
+  <si>
+    <t>剩余价值理论</t>
+  </si>
+  <si>
+    <t>劳动力成为商品</t>
+  </si>
+  <si>
+    <t>劳动者是自由人</t>
+  </si>
+  <si>
+    <t>商品中无差别的人类劳动</t>
+  </si>
+  <si>
+    <t>劳动者一无所有</t>
+  </si>
+  <si>
+    <t>交换价值</t>
+  </si>
+  <si>
+    <t>商品交换的比例关系</t>
+  </si>
+  <si>
+    <t>货币转化为资本</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>价值的货币表现形式</t>
+  </si>
+  <si>
+    <t>剩余价值</t>
+  </si>
+  <si>
+    <t>来源：工人的剩余劳动</t>
+  </si>
+  <si>
+    <t>数量上：剩余价值=利润</t>
+  </si>
+  <si>
+    <t>剩余价值：工人劳动的产物</t>
+  </si>
+  <si>
+    <t>利润：资本家全部预付资本的产物</t>
+  </si>
+  <si>
+    <t>剩余价值率：m/v</t>
+  </si>
+  <si>
+    <t>利润率：m/(c+v)</t>
+  </si>
+  <si>
+    <t>资本分类</t>
+  </si>
+  <si>
+    <t>依据是否能够带来剩余价值</t>
+  </si>
+  <si>
+    <t>可变资本</t>
+  </si>
+  <si>
+    <t>不变资本</t>
+  </si>
+  <si>
+    <t>资本周转速度</t>
+  </si>
+  <si>
+    <t>固定资本</t>
+  </si>
+  <si>
+    <t>流动资本</t>
+  </si>
+  <si>
+    <t>经济体制与市场经济</t>
+  </si>
+  <si>
+    <t>社会主义市场经济体制</t>
   </si>
 </sst>
 </file>
@@ -874,10 +1016,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -902,16 +1044,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +1099,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,52 +1128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,38 +1136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,8 +1151,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,7 +1197,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,19 +1257,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,97 +1311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,13 +1335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,13 +1359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,30 +1388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1297,6 +1415,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1308,11 +1441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,17 +1471,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,10 +1494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,138 +1506,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1841,693 +1989,693 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" ht="25" spans="1:15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" ht="25" spans="1:15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" ht="25" spans="1:15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" ht="25" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="5" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="5" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>1980.5</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>1988.4</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>2010.5</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2546,497 +2694,497 @@
   <dimension ref="D1:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="15.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.8333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="4:10">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="4:6">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="4:6">
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="2"/>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="4:13">
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="4:9">
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="4:9">
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="2"/>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="4"/>
+      <c r="F15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="4:8">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="4:8">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="4:9">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="4:9">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="4:9">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="4:9">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="4:9">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31" spans="4:9">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="4:9">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="2"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="4:7">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="4:6">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="4:6">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="4:6">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="4:9">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="1" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="1" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="1" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="4:9">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="4:9">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="I46" s="1" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="I46" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="4:9">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="I47" s="1" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="I47" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3077,637 +3225,637 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.66666666666667" style="1"/>
-    <col min="3" max="3" width="14.4166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="2" width="8.66666666666667" style="3"/>
+    <col min="3" max="3" width="14.4166666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.66666666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="4:7">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="5:14">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="5:13">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="5:7">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="5:9">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="7:8">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="2"/>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="4"/>
+      <c r="E22" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="2"/>
-      <c r="E23" s="1" t="s">
+      <c r="C23" s="4"/>
+      <c r="E23" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="F34" s="1" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="35" spans="3:12">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="3:13">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="42" spans="4:6">
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="2"/>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="2"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="2"/>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="4:6">
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="66" spans="4:8">
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="4:8">
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="68" spans="4:8">
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="69" spans="4:9">
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="70" spans="4:8">
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3757,4 +3905,419 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N15" t="s">
+        <v>309</v>
+      </c>
+      <c r="P15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>311</v>
+      </c>
+      <c r="N16" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="D2:E13"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J22:L23"/>
+    <mergeCell ref="J24:L25"/>
+    <mergeCell ref="G22:I25"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="D14:E25"/>
+    <mergeCell ref="A2:C25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>